--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEFFD6A-DAB9-4F05-8470-F77643EEEE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FEEA61-0B3B-4E17-9206-9BF74188C9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17544" windowHeight="10812" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -49,13 +49,509 @@
   </si>
   <si>
     <t>Responsable</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>fran</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">  "name": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">,
+  "abbreviation": "pruea2",
+  "description": "preuba2",
+  "openTime":"prueba2",
+  "closeTime":"prueba 2"
+}al endpoint : http://localhost:5000/place  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en name un int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>"abbreviation": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">,
+  "description": "",
+  "openTime":"",
+  "closeTime":""
+}
+al endpoint : http://localhost:5000/place  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en abbreviation un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+{
+  "name": "prueba",
+  "abbreviation": "a",
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> "description": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">  "openTime":"",
+  "closeTime":""
+}
+al endpoint : http://localhost:5000/place  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en description un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba",
+  "abbreviation": "a",
+  "description": "1",
+  "openTime":"1",
+  "closeTime":1
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en closeTime un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba",
+  "abbreviation": "a",
+  "description": "1",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>"openTime":1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">,
+  "closeTime":""
+}
+al endpoint : http://localhost:5000/place  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en openTime un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba horarios",
+  "abbreviation": "ABV",
+  "description": "Descripción con caracteres no ASCII: é, ñ, ü",
+  "openTime":"string ",
+  "closeTime":"string"
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia close time y open time datos que no son horas</t>
+    </r>
+  </si>
+  <si>
+    <t>se sugiere restringir los datos de entrada de close time y open time para que sean rechazados sino tienen formato hora</t>
+  </si>
+  <si>
+    <t>BACKEND- ALTA abm Lugares (place])</t>
+  </si>
+  <si>
+    <t>BACKEND- MODIFICACION abm Lugares (place])</t>
+  </si>
+  <si>
+    <t>BACKEND ALTA abm categorias(category)</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">  "name": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">,
+  "abbreviation": "pruea2",
+  "description": "preuba2",
+  "openTime":"prueba2",
+  "closeTime":"prueba 2"
+}al endpoint : http://localhost:5000/place/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en name un int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+{
+  "name": "prueba",
+  "abbreviation": "a",
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> "description": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">  "openTime":"",
+  "closeTime":""
+}
+al endpoint : http://localhost:5000/place/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en description un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba",
+  "abbreviation": "a",
+  "description": "1",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>"openTime":1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">,
+  "closeTime":""
+}
+al endpoint : http://localhost:5000/place/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en openTime un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba",
+  "abbreviation": "a",
+  "description": "1",
+  "openTime":"1",
+  "closeTime":1
+}al endpoint : http://localhost:5000/place/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en closeTime un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name": "prueba horarios",
+  "abbreviation": "ABV",
+  "description": "Descripción con caracteres no ASCII: é, ñ, ü",
+  "openTime":"string ",
+  "closeTime":"string"
+}al endpoint : http://localhost:5000/place/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia close time y open time datos que no son horas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name":1,
+  "description":"prueba",
+  "isExtern": 0
+}al endpoint : http://localhost:5000/category  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en name un int</t>
+    </r>
+  </si>
+  <si>
+    <t>BACKEND MODIFICACION abm categorias(category)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name":"1",
+  "description":1,
+  "isExtern": 0
+}al endpoint : http://localhost:5000/category  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en description un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name":1,
+  "description":"prueba",
+  "isExtern": 0
+}al endpoint : http://localhost:5000/category/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en name un int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud 
+{
+  "name":"1",
+  "description":1,
+  "isExtern": 0
+}al endpoint : http://localhost:5000/category/1  y el response devuelve error de negocio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en description un int</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +570,49 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -89,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -149,11 +688,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +713,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -185,7 +750,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,26 +1046,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC43020-387C-454E-A775-A4426491F430}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,28 +1091,1860 @@
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" ht="137.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45421</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="9"/>
+    </row>
+    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="9"/>
+    </row>
+    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="9"/>
+    </row>
+    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="9"/>
+    </row>
+    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="3"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="3"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="3"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="3"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="3"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="3"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="3"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="3"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="3"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="3"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="3"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B58E9A0-130C-4811-A535-E0D34FC602A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB1780-3F9C-4BDA-835D-5296051F041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -923,6 +923,9 @@
       </rPr>
       <t>devuelve "usuario registrado" , deberia devolver error al registrar ya que active date son caracteres no numericos</t>
     </r>
+  </si>
+  <si>
+    <t>BACKEND MODIFICACION abm categorias(USER)</t>
   </si>
 </sst>
 </file>
@@ -1421,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC43020-387C-454E-A775-A4426491F430}">
   <dimension ref="B2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2108,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>22</v>
@@ -2130,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>22</v>
@@ -2155,7 +2158,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>22</v>
@@ -2180,7 +2183,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>22</v>
@@ -2205,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>22</v>

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pais Gamer\OneDrive\Escritorio\TrabajoPracticoPrincipal\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB1780-3F9C-4BDA-835D-5296051F041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -927,12 +926,48 @@
   <si>
     <t>BACKEND MODIFICACION abm categorias(USER)</t>
   </si>
+  <si>
+    <t>Critico</t>
+  </si>
+  <si>
+    <t>Fallo a la hora de crear la tabla visitor</t>
+  </si>
+  <si>
+    <t>Corregido</t>
+  </si>
+  <si>
+    <t>Franco Fallatti</t>
+  </si>
+  <si>
+    <t>Fallo en FK de tabla Logs</t>
+  </si>
+  <si>
+    <t>Crtiico</t>
+  </si>
+  <si>
+    <t>Al realizar un request en postman en el endpount create_place , donde no se pasa alguno de los campos necesarios en el json, devuelve un 500</t>
+  </si>
+  <si>
+    <t>abierto</t>
+  </si>
+  <si>
+    <t>Al realizar un request en postman en el endpount update_place , donde no se pasa alguno de los campos necesarios en el json, devuelve un 500</t>
+  </si>
+  <si>
+    <t>Facundo Hernandez</t>
+  </si>
+  <si>
+    <t>34R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,7 +1038,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1072,11 +1107,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1094,20 +1153,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,14 +1506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC43020-387C-454E-A775-A4426491F430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
@@ -1443,182 +1528,182 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+    <row r="4" spans="2:11" ht="116.25" thickBot="1">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="17">
         <v>45421</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="17">
         <v>45421</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="2:11" ht="126" thickBot="1">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="17">
         <v>45421</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="17">
         <v>45421</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
         <v>45421</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="17">
         <v>45421</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1626,655 +1711,724 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    <row r="10" spans="2:11" ht="116.25" thickBot="1">
+      <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="17">
         <v>45421</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="17">
         <v>45421</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="137.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" ht="126" thickBot="1">
+      <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="17">
         <v>45421</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="17">
         <v>45421</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="17">
         <v>45421</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B15" s="15">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="17">
         <v>45421</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+    <row r="16" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="17">
         <v>45421</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="17">
+        <v>45421</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="103.5" thickBot="1">
+      <c r="B17" s="15">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17">
+        <v>45421</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="103.5" thickBot="1">
+      <c r="B18" s="15">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="17">
+        <v>45421</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" ht="103.5" thickBot="1">
+      <c r="B19" s="15">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="17">
+        <v>45421</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" ht="81" thickBot="1">
+      <c r="B20" s="15">
+        <v>17</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" ht="81" thickBot="1">
+      <c r="B21" s="15">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" ht="81" thickBot="1">
+      <c r="B22" s="15">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" ht="81" thickBot="1">
+      <c r="B23" s="15">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="17">
+        <v>45421</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E24" s="17">
         <v>45421</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="E18" s="4">
+      <c r="C25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="17">
         <v>45421</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" ht="150" thickBot="1">
+      <c r="B26" s="15">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E26" s="17">
         <v>45421</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B27" s="15">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E27" s="17">
         <v>45421</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" ht="150" thickBot="1">
+      <c r="B28" s="15">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E28" s="17">
         <v>45421</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+    <row r="29" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="17">
         <v>45421</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:12" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+    <row r="30" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="17">
         <v>45421</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+    <row r="31" spans="2:12" ht="150" thickBot="1">
+      <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="17">
         <v>45421</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+    <row r="32" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="17">
         <v>45421</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+    <row r="33" spans="2:10" ht="150" thickBot="1">
+      <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="17">
         <v>45421</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B34" s="10">
+        <v>31</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>45417</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45418</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B35" s="10">
+        <v>32</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>45418</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+    <row r="36" spans="2:10" ht="23.25" thickBot="1">
+      <c r="B36" s="10">
+        <v>33</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>45419</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="23.25" thickBot="1">
+      <c r="B37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12">
+        <v>45419</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="5" t="e">
+        <f>+B3B12:J37</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2285,7 +2439,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="15.75" thickBot="1">
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2296,7 +2450,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.75" thickBot="1">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2307,7 +2461,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.75" thickBot="1">
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2318,7 +2472,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2329,7 +2483,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15.75" thickBot="1">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2340,7 +2494,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15.75" thickBot="1">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2351,7 +2505,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="15.75" thickBot="1">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2362,7 +2516,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2373,7 +2527,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="15.75" thickBot="1">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2384,7 +2538,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="15.75" thickBot="1">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2395,7 +2549,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="15.75" thickBot="1">
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2406,7 +2560,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="15.75" thickBot="1">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2417,7 +2571,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="15.75" thickBot="1">
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2428,7 +2582,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="15.75" thickBot="1">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2439,7 +2593,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="15.75" thickBot="1">
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2450,7 +2604,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="15.75" thickBot="1">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2461,7 +2615,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="15.75" thickBot="1">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2472,7 +2626,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="15.75" thickBot="1">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2483,7 +2637,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="15.75" thickBot="1">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2494,7 +2648,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" ht="15.75" thickBot="1">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2505,7 +2659,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="15.75" thickBot="1">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2516,7 +2670,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" ht="15.75" thickBot="1">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2527,7 +2681,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="15.75" thickBot="1">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2538,7 +2692,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="15.75" thickBot="1">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2549,7 +2703,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="15.75" thickBot="1">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2560,7 +2714,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" ht="15.75" thickBot="1">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2571,7 +2725,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" ht="15.75" thickBot="1">
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2582,7 +2736,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" ht="15.75" thickBot="1">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2593,7 +2747,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="15.75" thickBot="1">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2604,7 +2758,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" ht="15.75" thickBot="1">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2615,7 +2769,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" ht="15.75" thickBot="1">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2626,7 +2780,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" ht="15.75" thickBot="1">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2637,7 +2791,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" ht="15.75" thickBot="1">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2648,7 +2802,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" ht="15.75" thickBot="1">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2659,7 +2813,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" ht="15.75" thickBot="1">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2670,7 +2824,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" ht="15.75" thickBot="1">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2681,7 +2835,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="15.75" thickBot="1">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2692,7 +2846,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" ht="15.75" thickBot="1">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2703,7 +2857,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" ht="15.75" thickBot="1">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2714,7 +2868,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" ht="15.75" thickBot="1">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2725,7 +2879,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" ht="15.75" thickBot="1">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2736,7 +2890,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" ht="15.75" thickBot="1">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2747,7 +2901,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" ht="15.75" thickBot="1">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2758,7 +2912,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" ht="15.75" thickBot="1">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2769,7 +2923,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" ht="15.75" thickBot="1">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2780,7 +2934,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" ht="15.75" thickBot="1">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2791,7 +2945,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" ht="15.75" thickBot="1">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2802,7 +2956,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" ht="15.75" thickBot="1">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2813,7 +2967,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" ht="15.75" thickBot="1">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2824,7 +2978,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" ht="15.75" thickBot="1">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -2835,7 +2989,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" ht="15.75" thickBot="1">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -2846,7 +3000,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" ht="15.75" thickBot="1">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -2857,7 +3011,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" ht="15.75" thickBot="1">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2868,7 +3022,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" ht="15.75" thickBot="1">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2879,7 +3033,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="15.75" thickBot="1">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2890,7 +3044,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" ht="15.75" thickBot="1">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -2901,7 +3055,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" ht="15.75" thickBot="1">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -2912,7 +3066,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" ht="15.75" thickBot="1">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -2923,7 +3077,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10" ht="15.75" thickBot="1">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2934,7 +3088,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10" ht="15.75" thickBot="1">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -2945,7 +3099,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10" ht="15.75" thickBot="1">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -2956,7 +3110,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10" ht="15.75" thickBot="1">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -2967,7 +3121,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" ht="15.75" thickBot="1">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -2978,7 +3132,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" ht="15.75" thickBot="1">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -2989,7 +3143,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" ht="15.75" thickBot="1">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3000,7 +3154,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" ht="15.75" thickBot="1">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3011,7 +3165,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10" ht="15.75" thickBot="1">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3022,7 +3176,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10" ht="15.75" thickBot="1">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3033,7 +3187,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10" ht="15.75" thickBot="1">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3044,7 +3198,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" ht="15.75" thickBot="1">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3055,7 +3209,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10" ht="15.75" thickBot="1">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3066,7 +3220,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10" ht="15.75" thickBot="1">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3077,7 +3231,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" ht="15.75" thickBot="1">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3088,7 +3242,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10" ht="15.75" thickBot="1">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3099,7 +3253,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" ht="15.75" thickBot="1">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3110,7 +3264,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" ht="15.75" thickBot="1">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3121,7 +3275,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" ht="15.75" thickBot="1">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3132,7 +3286,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" ht="15.75" thickBot="1">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3143,7 +3297,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" ht="15.75" thickBot="1">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3154,7 +3308,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" ht="15.75" thickBot="1">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3165,7 +3319,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" ht="15.75" thickBot="1">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -3176,7 +3330,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" ht="15.75" thickBot="1">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -3187,7 +3341,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" ht="15.75" thickBot="1">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -3198,7 +3352,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" ht="15.75" thickBot="1">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -3209,7 +3363,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" ht="15.75" thickBot="1">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3220,7 +3374,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" ht="15.75" thickBot="1">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3231,7 +3385,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" ht="15.75" thickBot="1">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3242,7 +3396,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" ht="15.75" thickBot="1">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3253,7 +3407,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" ht="15.75" thickBot="1">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3264,7 +3418,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" ht="15.75" thickBot="1">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -3275,7 +3429,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10" ht="15.75" thickBot="1">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3286,7 +3440,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" ht="15.75" thickBot="1">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -3297,7 +3451,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" ht="15.75" thickBot="1">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3308,7 +3462,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" ht="15.75" thickBot="1">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3319,7 +3473,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" ht="15.75" thickBot="1">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -3330,7 +3484,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" ht="15.75" thickBot="1">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -3341,7 +3495,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" ht="15.75" thickBot="1">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3352,7 +3506,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" ht="15.75" thickBot="1">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3363,7 +3517,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10" ht="15.75" thickBot="1">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3374,7 +3528,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" ht="15.75" thickBot="1">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -3385,7 +3539,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" ht="15.75" thickBot="1">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -3396,7 +3550,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" ht="15.75" thickBot="1">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -3407,7 +3561,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" ht="15.75" thickBot="1">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -3418,7 +3572,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" ht="15.75" thickBot="1">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -3429,7 +3583,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" ht="15.75" thickBot="1">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -3440,7 +3594,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" ht="15.75" thickBot="1">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -3451,7 +3605,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" ht="15.75" thickBot="1">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3462,7 +3616,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" ht="15.75" thickBot="1">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -3473,7 +3627,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10" ht="15.75" thickBot="1">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -3484,7 +3638,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10" ht="15.75" thickBot="1">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -3495,7 +3649,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10" ht="15.75" thickBot="1">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -3506,7 +3660,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10" ht="15.75" thickBot="1">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pais Gamer\OneDrive\Escritorio\TrabajoPracticoPrincipal\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE938DC0-F2D8-421D-96E6-124419890C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -927,47 +928,213 @@
     <t>BACKEND MODIFICACION abm categorias(USER)</t>
   </si>
   <si>
-    <t>Critico</t>
-  </si>
-  <si>
-    <t>Fallo a la hora de crear la tabla visitor</t>
-  </si>
-  <si>
-    <t>Corregido</t>
-  </si>
-  <si>
-    <t>Franco Fallatti</t>
-  </si>
-  <si>
-    <t>Fallo en FK de tabla Logs</t>
-  </si>
-  <si>
-    <t>Crtiico</t>
-  </si>
-  <si>
-    <t>Al realizar un request en postman en el endpount create_place , donde no se pasa alguno de los campos necesarios en el json, devuelve un 500</t>
+    <t>BACKEND ALTA abm categorias(INSTITUTE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "placeId":"1",
+  "name":"1"
+}
+al endpoint http://localhost:5000/institute
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">devuelve "Institute Registrado", pero en la DB deja en null el place_id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>abierto</t>
   </si>
   <si>
-    <t>Al realizar un request en postman en el endpount update_place , donde no se pasa alguno de los campos necesarios en el json, devuelve un 500</t>
-  </si>
-  <si>
-    <t>Facundo Hernandez</t>
-  </si>
-  <si>
-    <t>34R</t>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "placeId":"99",
+  "name":"1"
+}al endpoint http://localhost:5000/institute
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">devuelve "Institute Registrado", deberia devolver "error al registrar" ya que en la DB place no existe el id 99
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "placeId":"99",
+  "name":1
+}al endpoint http://localhost:5000/institute
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">devuelve un error de negocio por mandar un int en name, los institutos deberian poder ser numeros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>BACKEND MODIFICACION abm categorias(INSTITUTE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "placeId":"1",
+  "name":"1"
+}
+al endpoint http://localhost:5000/institute/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">devuelve "Institute Registrado", pero en la DB deja en null el place_id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "placeId":"99",
+  "name":"1"
+}al endpoint http://localhost:5000/institute/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">devuelve "Institute Registrado", deberia devolver "error al registrar" ya que en la DB place no existe el id 99
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "placeId":"99",
+  "name":1
+}al endpoint http://localhost:5000/institute/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">devuelve un error de negocio por mandar un int en name, los institutos deberian poder ser numeros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>BACKEND GET abm categorias(INSTITUTE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> se envia la solicitud: "http://localhost:5000/institute/1" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no devuelve place_id</t>
+    </r>
+  </si>
+  <si>
+    <t>BACKEND Alta abm categorias(Visitor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,16 +1196,30 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1107,35 +1288,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1153,45 +1310,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC43020-387C-454E-A775-A4426491F430}">
   <dimension ref="B2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
@@ -1528,182 +1675,182 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="116.25" thickBot="1">
-      <c r="B4" s="15">
+    <row r="4" spans="2:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="4">
         <v>45421</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="2:11" ht="114.75" thickBot="1">
-      <c r="B5" s="15">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="4">
         <v>45421</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:11" ht="126" thickBot="1">
-      <c r="B6" s="15">
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="4">
         <v>45421</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="2:11" ht="114.75" thickBot="1">
-      <c r="B7" s="15">
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="4">
         <v>45421</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:11" ht="103.5" thickBot="1">
-      <c r="B8" s="15">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="4">
         <v>45421</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:11" ht="103.5" thickBot="1">
-      <c r="B9" s="15">
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="4">
         <v>45421</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1711,759 +1858,792 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="116.25" thickBot="1">
-      <c r="B10" s="15">
+    <row r="10" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="4">
         <v>45421</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="2:11" ht="114.75" thickBot="1">
-      <c r="B11" s="15">
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="4">
         <v>45421</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="2:11" ht="126" thickBot="1">
-      <c r="B12" s="15">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" ht="137.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="4">
         <v>45421</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:11" ht="114.75" thickBot="1">
-      <c r="B13" s="15">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="4">
         <v>45421</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:11" ht="103.5" thickBot="1">
-      <c r="B14" s="15">
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="4">
         <v>45421</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" ht="114.75" thickBot="1">
-      <c r="B15" s="15">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="4">
         <v>45421</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="103.5" thickBot="1">
-      <c r="B16" s="15">
+    <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="4">
         <v>45421</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
         <v>45421</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="103.5" thickBot="1">
-      <c r="B17" s="15">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45421</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E24" s="4">
         <v>45421</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4">
         <v>45421</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" ht="103.5" thickBot="1">
-      <c r="B18" s="15">
-        <v>15</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E26" s="4">
         <v>45421</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4">
         <v>45421</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="2:12" ht="103.5" thickBot="1">
-      <c r="B19" s="15">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="F27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E28" s="4">
         <v>45421</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="F28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="17">
-        <v>45421</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="81" thickBot="1">
-      <c r="B20" s="15">
-        <v>17</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="81" thickBot="1">
-      <c r="B21" s="15">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="81" thickBot="1">
-      <c r="B22" s="15">
-        <v>19</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="81" thickBot="1">
-      <c r="B23" s="15">
-        <v>20</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="162.75" thickBot="1">
-      <c r="B24" s="15">
-        <v>21</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" ht="162.75" thickBot="1">
-      <c r="B25" s="15">
-        <v>22</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" ht="150" thickBot="1">
-      <c r="B26" s="15">
-        <v>23</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" ht="162.75" thickBot="1">
-      <c r="B27" s="15">
-        <v>24</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" ht="150" thickBot="1">
-      <c r="B28" s="15">
-        <v>25</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="17">
-        <v>45421</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="162.75" thickBot="1">
-      <c r="B29" s="15">
+    <row r="29" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="4">
         <v>45421</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:12" ht="162.75" thickBot="1">
-      <c r="B30" s="15">
+    <row r="30" spans="2:12" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="4">
         <v>45421</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="150" thickBot="1">
-      <c r="B31" s="15">
+    <row r="31" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="4">
         <v>45421</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="162.75" thickBot="1">
-      <c r="B32" s="15">
+    <row r="32" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="4">
         <v>45421</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="150" thickBot="1">
-      <c r="B33" s="15">
+    <row r="33" spans="2:10" s="17" customFormat="1" ht="150" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13">
         <v>30</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>45421</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B34" s="10">
+    <row r="34" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="11">
-        <v>2</v>
-      </c>
-      <c r="E34" s="12">
-        <v>45417</v>
-      </c>
-      <c r="F34" s="11" t="s">
+      <c r="D34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="13">
-        <v>45418</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B35" s="10">
-        <v>32</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="G35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="13">
-        <v>45418</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" ht="23.25" thickBot="1">
-      <c r="B36" s="10">
-        <v>33</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="G36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="11">
-        <v>2</v>
-      </c>
-      <c r="E36" s="12">
-        <v>45419</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="D37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10" ht="23.25" thickBot="1">
-      <c r="B37" s="10" t="s">
+      <c r="G38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" s="17" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="13">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="15">
+        <v>45422</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="11">
-        <v>2</v>
-      </c>
-      <c r="E37" s="12">
-        <v>45419</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="5" t="e">
-        <f>+B3B12:J37</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
+      <c r="G40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
@@ -2472,7 +2652,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2483,7 +2663,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1">
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2494,7 +2674,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1">
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2505,7 +2685,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1">
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2516,7 +2696,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2527,7 +2707,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1">
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2538,7 +2718,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1">
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2549,7 +2729,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1">
+    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2560,7 +2740,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" ht="15.75" thickBot="1">
+    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2571,7 +2751,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1">
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2582,7 +2762,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1">
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2593,7 +2773,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1">
+    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2604,7 +2784,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1">
+    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2615,7 +2795,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1">
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2626,7 +2806,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1">
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2637,7 +2817,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1">
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2648,7 +2828,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="15.75" thickBot="1">
+    <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2659,7 +2839,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1">
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2670,7 +2850,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1">
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2681,7 +2861,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1">
+    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2692,7 +2872,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1">
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2703,7 +2883,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" ht="15.75" thickBot="1">
+    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2714,7 +2894,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1">
+    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2725,7 +2905,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" ht="15.75" thickBot="1">
+    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2736,7 +2916,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1">
+    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2747,7 +2927,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1">
+    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2758,7 +2938,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1">
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2769,7 +2949,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1">
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2780,7 +2960,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1">
+    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2791,7 +2971,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1">
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2802,7 +2982,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1">
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2813,7 +2993,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1">
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2824,7 +3004,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1">
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2835,7 +3015,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1">
+    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2846,7 +3026,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1">
+    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2857,7 +3037,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1">
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2868,7 +3048,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1">
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2879,7 +3059,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1">
+    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2890,7 +3070,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1">
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2901,7 +3081,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1">
+    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2912,7 +3092,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" thickBot="1">
+    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2923,7 +3103,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1">
+    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2934,7 +3114,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1">
+    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2945,7 +3125,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" thickBot="1">
+    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2956,7 +3136,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1">
+    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2967,7 +3147,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1">
+    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2978,7 +3158,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" thickBot="1">
+    <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -2989,7 +3169,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1">
+    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3000,7 +3180,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1">
+    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3011,7 +3191,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1">
+    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3022,7 +3202,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1">
+    <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3033,7 +3213,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1">
+    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3044,7 +3224,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1">
+    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3055,7 +3235,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" thickBot="1">
+    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3066,7 +3246,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1">
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3077,7 +3257,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1">
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3088,7 +3268,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1">
+    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3099,7 +3279,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1">
+    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3110,7 +3290,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1">
+    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3121,7 +3301,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1">
+    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3132,7 +3312,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1">
+    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3143,7 +3323,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" ht="15.75" thickBot="1">
+    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3154,7 +3334,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1">
+    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3165,7 +3345,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" thickBot="1">
+    <row r="105" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3176,7 +3356,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1">
+    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3187,7 +3367,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1">
+    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3198,7 +3378,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1">
+    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3209,7 +3389,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1">
+    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3220,7 +3400,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" thickBot="1">
+    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3231,7 +3411,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1">
+    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3242,7 +3422,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1">
+    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3253,7 +3433,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" thickBot="1">
+    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3264,7 +3444,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1">
+    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3275,7 +3455,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" ht="15.75" thickBot="1">
+    <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3286,7 +3466,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1">
+    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3297,7 +3477,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" thickBot="1">
+    <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3308,7 +3488,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" thickBot="1">
+    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3319,7 +3499,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1">
+    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -3330,7 +3510,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" thickBot="1">
+    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -3341,7 +3521,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1">
+    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -3352,7 +3532,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" thickBot="1">
+    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -3363,7 +3543,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" thickBot="1">
+    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3374,7 +3554,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1">
+    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3385,7 +3565,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" ht="15.75" thickBot="1">
+    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3396,7 +3576,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" thickBot="1">
+    <row r="126" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3407,7 +3587,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" thickBot="1">
+    <row r="127" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3418,7 +3598,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" thickBot="1">
+    <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -3429,7 +3609,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" ht="15.75" thickBot="1">
+    <row r="129" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3440,7 +3620,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" ht="15.75" thickBot="1">
+    <row r="130" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -3451,7 +3631,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" ht="15.75" thickBot="1">
+    <row r="131" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3462,7 +3642,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" thickBot="1">
+    <row r="132" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3473,7 +3653,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" ht="15.75" thickBot="1">
+    <row r="133" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -3484,7 +3664,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" ht="15.75" thickBot="1">
+    <row r="134" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -3495,7 +3675,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" ht="15.75" thickBot="1">
+    <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3506,7 +3686,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" thickBot="1">
+    <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3517,7 +3697,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" ht="15.75" thickBot="1">
+    <row r="137" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3528,7 +3708,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" ht="15.75" thickBot="1">
+    <row r="138" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -3539,7 +3719,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" ht="15.75" thickBot="1">
+    <row r="139" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -3550,7 +3730,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" thickBot="1">
+    <row r="140" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -3561,7 +3741,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" ht="15.75" thickBot="1">
+    <row r="141" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -3572,7 +3752,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" ht="15.75" thickBot="1">
+    <row r="142" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -3583,7 +3763,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1">
+    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -3594,7 +3774,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" ht="15.75" thickBot="1">
+    <row r="144" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -3605,7 +3785,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" ht="15.75" thickBot="1">
+    <row r="145" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3616,7 +3796,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1">
+    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -3627,7 +3807,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" thickBot="1">
+    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -3638,7 +3818,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" ht="15.75" thickBot="1">
+    <row r="148" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -3649,7 +3829,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" ht="15.75" thickBot="1">
+    <row r="149" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -3660,7 +3840,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" thickBot="1">
+    <row r="150" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE938DC0-F2D8-421D-96E6-124419890C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF7773-ED3E-46B9-B34E-372B88A36398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="93">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -1128,6 +1128,645 @@
   </si>
   <si>
     <t>BACKEND Alta abm categorias(Visitor)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":111, 
+  "enterprice_id":" sdad",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}
+al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en dni un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"5", 
+  "enterprice_id":"",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}
+al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "enterprice_id vacio y devuelve  "error": "Faltan campos en la solicitud" , un entreprice_ID puede ser vacio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"5", 
+  "enterprice_id":"rsadas",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}
+al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "enterprice_id con caracteres no numericos , devuelve "usuario registrado" , el entrepice_id es esclusivamente numerico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"10", 
+  "enterprice_id":5,
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "enterprice_id  un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"10", 
+  "enterprice_id":5,
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "name"  un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"12", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":1,
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "lastname"  un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":1,
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "email"  un INT y se rompe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "email"  un string sin formate de mail y devuelve "message": "Visitante Registrado", debe poder detectar el formato mail</t>
+    </r>
+  </si>
+  <si>
+    <t>se puede agregar un detector de formato email.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":1
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "startDate"  un INT y se rompe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"asdads"
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "startDate"  un String sin formato fecha , y devuelve "Visitante Registrado" . debe poder detectar el formato fecha</t>
+    </r>
+  </si>
+  <si>
+    <t>se puede agregar un detector de formato fecha.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"1"
+  "finishDate":1
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "finishDate"  un INT y se rompe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"asdads"
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "finishDate"  un String sin formato fecha , y devuelve "Visitante Registrado" . debe poder detectar el formato fecha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"10", 
+  "enterprice_id":"999",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">se envia en  "enterprice_id"  y devuelve "usuario registrado" , no deberia registrar ya que ese id enterprice no existe </t>
+    </r>
+  </si>
+  <si>
+    <t>BACKEND Modificacion abm categorias(Visitor)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":111, 
+  "enterprice_id":" sdad",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}
+al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en dni un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"5", 
+  "enterprice_id":"",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}
+al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "enterprice_id vacio y devuelve  "error": "Faltan campos en la solicitud" , un entreprice_ID puede ser vacio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"5", 
+  "enterprice_id":"rsadas",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}
+al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "enterprice_id con caracteres no numericos , devuelve "usuario registrado" , el entrepice_id es esclusivamente numerico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"10", 
+  "enterprice_id":5,
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "enterprice_id  un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"10", 
+  "enterprice_id":"999",
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">se envia en  "enterprice_id"  y devuelve "usuario registrado" , no deberia registrar ya que ese id enterprice no existe </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"10", 
+  "enterprice_id":5,
+  "name":"fede",
+  "lastname":"fede",
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "name"  un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"12", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":1,
+  "email":"fede",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "lastname"  un INT y se rompe, debe ser capaz de poder numeros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":1,
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "email"  un INT y se rompe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"asdas",
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "email"  un string sin formate de mail y devuelve "message": "Visitante Registrado", debe poder detectar el formato mail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":1
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "startDate"  un INT y se rompe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"asdads"
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "startDate"  un String sin formato fecha , y devuelve "Visitante Registrado" . debe poder detectar el formato fecha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"1"
+  "finishDate":1
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "finishDate"  un INT y se rompe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">se envia la solicitud
+{
+  "dni":"13", 
+  "enterprice_id":"dsada",
+  "name":"1",
+  "lastname":"1",
+  "email":"dsadasd",
+  "startDate":"asdads"
+  "finishDate":"dsadas"
+}al endpoint http://localhost:5000/visitor/1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>se envia en  "finishDate"  un String sin formato fecha , y devuelve "Visitante Registrado" . debe poder detectar el formato fecha</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1205,18 +1844,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1292,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1324,20 +1957,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1654,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC43020-387C-454E-A775-A4426491F430}">
-  <dimension ref="B2:L150"/>
+  <dimension ref="B2:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,30 +3055,30 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" s="17" customFormat="1" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13">
+    <row r="33" spans="2:10" ht="150" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4">
         <v>45421</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="16" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2612,320 +3232,692 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" s="17" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="13">
+    <row r="40" spans="2:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="D40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="4">
         <v>45422</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+    <row r="42" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+    <row r="43" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+    <row r="44" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+    <row r="45" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+    <row r="46" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+    <row r="47" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+    <row r="48" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+    <row r="49" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+    <row r="51" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+    <row r="53" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+    <row r="55" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+    <row r="56" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+    <row r="57" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+    <row r="58" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+    <row r="59" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+    <row r="60" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+    <row r="61" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+    <row r="62" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+    <row r="64" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+    <row r="66" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="4">
+        <v>45422</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="5"/>
+      <c r="I66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
@@ -3851,6 +4843,17 @@
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
     </row>
+    <row r="151" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pais Gamer\OneDrive\Escritorio\TrabajoPracticoPrincipal\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF7773-ED3E-46B9-B34E-372B88A36398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E92618C-45E0-4A67-8152-07A8579619C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -1768,12 +1767,18 @@
       <t>se envia en  "finishDate"  un String sin formato fecha , y devuelve "Visitante Registrado" . debe poder detectar el formato fecha</t>
     </r>
   </si>
+  <si>
+    <t>Facundo Hernandez</t>
+  </si>
+  <si>
+    <t>pendiente de aprobacion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1925,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1943,22 +1948,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2273,14 +2289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC43020-387C-454E-A775-A4426491F430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
@@ -2295,182 +2311,182 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+    <row r="4" spans="2:11" ht="116.25" thickBot="1">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="12">
         <v>45421</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
         <v>45421</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:11" ht="126" thickBot="1">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="12">
         <v>45421</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="12">
         <v>45421</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
         <v>45421</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="12">
         <v>45421</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -2478,1448 +2494,1448 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    <row r="10" spans="2:11" ht="116.25" thickBot="1">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="12">
         <v>45421</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="12">
         <v>45421</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="137.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" ht="126" thickBot="1">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="12">
         <v>45421</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" ht="114.75" thickBot="1">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="12">
         <v>45421</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="12">
         <v>45421</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B15" s="10">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="12">
         <v>45421</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+    <row r="16" spans="2:11" ht="103.5" thickBot="1">
+      <c r="B16" s="10">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="12">
         <v>45421</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="103.5" thickBot="1">
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="103.5" thickBot="1">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" ht="103.5" thickBot="1">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" ht="81" thickBot="1">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" ht="81" thickBot="1">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" ht="81" thickBot="1">
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" ht="81" thickBot="1">
+      <c r="B23" s="10">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12">
+        <v>45421</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B24" s="10">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="C24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="12">
         <v>45421</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B25" s="10">
+        <v>22</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="12">
         <v>45421</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" ht="150" thickBot="1">
+      <c r="B26" s="10">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="12">
         <v>45421</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B27" s="10">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12">
         <v>45421</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" ht="150" thickBot="1">
+      <c r="B28" s="10">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="12">
         <v>45421</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="4">
-        <v>45421</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+    <row r="29" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B29" s="10">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12">
         <v>45421</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:12" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+    <row r="30" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B30" s="10">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="12">
         <v>45421</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+    <row r="31" spans="2:12" ht="150" thickBot="1">
+      <c r="B31" s="10">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="12">
         <v>45421</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+    <row r="32" spans="2:12" ht="162.75" thickBot="1">
+      <c r="B32" s="10">
         <v>29</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="12">
         <v>45421</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+    <row r="33" spans="2:10" ht="150" thickBot="1">
+      <c r="B33" s="10">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12">
         <v>45421</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+    <row r="34" spans="2:10" ht="106.5" thickBot="1">
+      <c r="B34" s="10">
         <v>31</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="12">
         <v>45422</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+    <row r="35" spans="2:10" ht="95.25" thickBot="1">
+      <c r="B35" s="10">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="12">
         <v>45422</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+    <row r="36" spans="2:10" ht="106.5" thickBot="1">
+      <c r="B36" s="10">
         <v>33</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="12">
         <v>45422</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+    <row r="37" spans="2:10" ht="106.5" thickBot="1">
+      <c r="B37" s="10">
         <v>34</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="12">
         <v>45422</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+    <row r="38" spans="2:10" ht="95.25" thickBot="1">
+      <c r="B38" s="10">
         <v>35</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="12">
         <v>45422</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+    <row r="39" spans="2:10" ht="106.5" thickBot="1">
+      <c r="B39" s="10">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="12">
         <v>45422</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+    <row r="40" spans="2:10" ht="31.5" thickBot="1">
+      <c r="B40" s="10">
         <v>37</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="12">
         <v>45422</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+    <row r="41" spans="2:10" ht="183.75" thickBot="1">
+      <c r="B41" s="10">
         <v>38</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="12">
         <v>45422</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+    <row r="42" spans="2:10" ht="172.5" thickBot="1">
+      <c r="B42" s="10">
         <v>39</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="12">
         <v>45422</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+    <row r="43" spans="2:10" ht="185.25" thickBot="1">
+      <c r="B43" s="10">
         <v>40</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="12">
         <v>45422</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+    <row r="44" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B44" s="10">
         <v>41</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="12">
         <v>45422</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+    <row r="45" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B45" s="10">
         <v>42</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="12">
         <v>45422</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+    <row r="46" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B46" s="10">
         <v>43</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="12">
         <v>45422</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+    <row r="47" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B47" s="10">
         <v>44</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="12">
         <v>45422</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
+    <row r="48" spans="2:10" ht="148.5" thickBot="1">
+      <c r="B48" s="10">
         <v>45</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="12">
         <v>45422</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
+    <row r="49" spans="2:10" ht="174" thickBot="1">
+      <c r="B49" s="10">
         <v>46</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="12">
         <v>45422</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
+    <row r="50" spans="2:10" ht="148.5" thickBot="1">
+      <c r="B50" s="10">
         <v>47</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="D50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="12">
         <v>45422</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
+    <row r="51" spans="2:10" ht="174" thickBot="1">
+      <c r="B51" s="10">
         <v>48</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="12">
         <v>45422</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
+    <row r="52" spans="2:10" ht="148.5" thickBot="1">
+      <c r="B52" s="10">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="D52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="12">
         <v>45422</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
+    <row r="53" spans="2:10" ht="174" thickBot="1">
+      <c r="B53" s="10">
         <v>50</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="D53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="12">
         <v>45422</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
+    <row r="54" spans="2:10" ht="183.75" thickBot="1">
+      <c r="B54" s="10">
         <v>51</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="D54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="12">
         <v>45422</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
+    <row r="55" spans="2:10" ht="172.5" thickBot="1">
+      <c r="B55" s="10">
         <v>52</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="12">
         <v>45422</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
+    <row r="56" spans="2:10" ht="185.25" thickBot="1">
+      <c r="B56" s="10">
         <v>53</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="12">
         <v>45422</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
+    <row r="57" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B57" s="10">
         <v>54</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="D57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="12">
         <v>45422</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
+      <c r="H57" s="11"/>
+      <c r="I57" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
+    <row r="58" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B58" s="10">
         <v>55</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="12">
         <v>45422</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3" t="s">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+    <row r="59" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B59" s="10">
         <v>56</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="12">
         <v>45422</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
+    <row r="60" spans="2:10" ht="161.25" thickBot="1">
+      <c r="B60" s="10">
         <v>57</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="12">
         <v>45422</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
+    <row r="61" spans="2:10" ht="148.5" thickBot="1">
+      <c r="B61" s="10">
         <v>58</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="12">
         <v>45422</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
+      <c r="H61" s="11"/>
+      <c r="I61" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+    <row r="62" spans="2:10" ht="174" thickBot="1">
+      <c r="B62" s="10">
         <v>59</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="12">
         <v>45422</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3" t="s">
+      <c r="H62" s="11"/>
+      <c r="I62" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
+    <row r="63" spans="2:10" ht="148.5" thickBot="1">
+      <c r="B63" s="10">
         <v>60</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="12">
         <v>45422</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
+    <row r="64" spans="2:10" ht="174" thickBot="1">
+      <c r="B64" s="10">
         <v>61</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="D64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="12">
         <v>45422</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3" t="s">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="2">
+    <row r="65" spans="2:10" ht="148.5" thickBot="1">
+      <c r="B65" s="10">
         <v>62</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="12">
         <v>45422</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3" t="s">
+      <c r="H65" s="11"/>
+      <c r="I65" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="2">
+    <row r="66" spans="2:10" ht="174" thickBot="1">
+      <c r="B66" s="10">
         <v>63</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="D66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="12">
         <v>45422</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3" t="s">
+      <c r="H66" s="11"/>
+      <c r="I66" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="15.75" thickBot="1">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3930,7 +3946,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" ht="15.75" thickBot="1">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3941,7 +3957,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" ht="15.75" thickBot="1">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3952,7 +3968,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" ht="15.75" thickBot="1">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3963,7 +3979,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" ht="15.75" thickBot="1">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3974,7 +3990,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" ht="15.75" thickBot="1">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3985,7 +4001,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" ht="15.75" thickBot="1">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3996,7 +4012,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" ht="15.75" thickBot="1">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4007,7 +4023,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="15.75" thickBot="1">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4018,7 +4034,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" ht="15.75" thickBot="1">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4029,7 +4045,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" ht="15.75" thickBot="1">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4040,7 +4056,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" ht="15.75" thickBot="1">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4051,7 +4067,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" ht="15.75" thickBot="1">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4062,7 +4078,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" ht="15.75" thickBot="1">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4073,7 +4089,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" ht="15.75" thickBot="1">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4084,7 +4100,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" ht="15.75" thickBot="1">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -4095,7 +4111,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" ht="15.75" thickBot="1">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4106,7 +4122,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" ht="15.75" thickBot="1">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4117,7 +4133,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" ht="15.75" thickBot="1">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4128,7 +4144,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" ht="15.75" thickBot="1">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4139,7 +4155,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" ht="15.75" thickBot="1">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4150,7 +4166,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" ht="15.75" thickBot="1">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4161,7 +4177,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" ht="15.75" thickBot="1">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4172,7 +4188,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" ht="15.75" thickBot="1">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4183,7 +4199,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" ht="15.75" thickBot="1">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4194,7 +4210,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" ht="15.75" thickBot="1">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4205,7 +4221,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="15.75" thickBot="1">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4216,7 +4232,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" ht="15.75" thickBot="1">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4227,7 +4243,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" ht="15.75" thickBot="1">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4238,7 +4254,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" ht="15.75" thickBot="1">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4249,7 +4265,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10" ht="15.75" thickBot="1">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4260,7 +4276,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10" ht="15.75" thickBot="1">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4271,7 +4287,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10" ht="15.75" thickBot="1">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4282,7 +4298,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10" ht="15.75" thickBot="1">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4293,7 +4309,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" ht="15.75" thickBot="1">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4304,7 +4320,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" ht="15.75" thickBot="1">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4315,7 +4331,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" ht="15.75" thickBot="1">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4326,7 +4342,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" ht="15.75" thickBot="1">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4337,7 +4353,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10" ht="15.75" thickBot="1">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4348,7 +4364,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10" ht="15.75" thickBot="1">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4359,7 +4375,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10" ht="15.75" thickBot="1">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4370,7 +4386,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" ht="15.75" thickBot="1">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4381,7 +4397,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10" ht="15.75" thickBot="1">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4392,7 +4408,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10" ht="15.75" thickBot="1">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4403,7 +4419,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" ht="15.75" thickBot="1">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4414,7 +4430,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10" ht="15.75" thickBot="1">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4425,7 +4441,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" ht="15.75" thickBot="1">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4436,7 +4452,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" ht="15.75" thickBot="1">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4447,7 +4463,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" ht="15.75" thickBot="1">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4458,7 +4474,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" ht="15.75" thickBot="1">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4469,7 +4485,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" ht="15.75" thickBot="1">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4480,7 +4496,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" ht="15.75" thickBot="1">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4491,7 +4507,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" ht="15.75" thickBot="1">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4502,7 +4518,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" ht="15.75" thickBot="1">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4513,7 +4529,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" ht="15.75" thickBot="1">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4524,7 +4540,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" ht="15.75" thickBot="1">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4535,7 +4551,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" ht="15.75" thickBot="1">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4546,7 +4562,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" ht="15.75" thickBot="1">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4557,7 +4573,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" ht="15.75" thickBot="1">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4568,7 +4584,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" ht="15.75" thickBot="1">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4579,7 +4595,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" ht="15.75" thickBot="1">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4590,7 +4606,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" ht="15.75" thickBot="1">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4601,7 +4617,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10" ht="15.75" thickBot="1">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4612,7 +4628,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" ht="15.75" thickBot="1">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4623,7 +4639,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" ht="15.75" thickBot="1">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4634,7 +4650,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" ht="15.75" thickBot="1">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4645,7 +4661,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" ht="15.75" thickBot="1">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4656,7 +4672,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" ht="15.75" thickBot="1">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4667,7 +4683,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" ht="15.75" thickBot="1">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4678,7 +4694,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" ht="15.75" thickBot="1">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4689,7 +4705,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10" ht="15.75" thickBot="1">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4700,7 +4716,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" ht="15.75" thickBot="1">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4711,7 +4727,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" ht="15.75" thickBot="1">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4722,7 +4738,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" ht="15.75" thickBot="1">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4733,7 +4749,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" ht="15.75" thickBot="1">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4744,7 +4760,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" ht="15.75" thickBot="1">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4755,7 +4771,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" ht="15.75" thickBot="1">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4766,7 +4782,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" ht="15.75" thickBot="1">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4777,7 +4793,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" ht="15.75" thickBot="1">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4788,7 +4804,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" ht="15.75" thickBot="1">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4799,7 +4815,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10" ht="15.75" thickBot="1">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4810,7 +4826,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10" ht="15.75" thickBot="1">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4821,7 +4837,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10" ht="15.75" thickBot="1">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4832,7 +4848,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10" ht="15.75" thickBot="1">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4843,7 +4859,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10" ht="15.75" thickBot="1">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pais Gamer\OneDrive\Escritorio\TrabajoPracticoPrincipal\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D710F95-FEAE-4482-863C-89F6B3D94838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1771,14 +1772,14 @@
     <t>Facundo Hernandez</t>
   </si>
   <si>
-    <t>pendiente de aprobacion</t>
+    <t>Cerrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2289,14 +2290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
@@ -2311,8 +2312,8 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="116.25" thickBot="1">
+    <row r="4" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -2358,15 +2359,17 @@
         <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45421</v>
+      </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:11" ht="114.75" thickBot="1">
+    <row r="5" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -2383,15 +2386,17 @@
         <v>13</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H5" s="12">
+        <v>45421</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:11" ht="126" thickBot="1">
+    <row r="6" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -2408,15 +2413,17 @@
         <v>14</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H6" s="12">
+        <v>45421</v>
+      </c>
       <c r="I6" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:11" ht="114.75" thickBot="1">
+    <row r="7" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -2433,15 +2440,17 @@
         <v>16</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H7" s="12">
+        <v>45421</v>
+      </c>
       <c r="I7" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:11" ht="103.5" thickBot="1">
+    <row r="8" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2458,15 +2467,17 @@
         <v>15</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45421</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:11" ht="103.5" thickBot="1">
+    <row r="9" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -2483,18 +2494,20 @@
         <v>17</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H9" s="12">
+        <v>45421</v>
+      </c>
       <c r="I9" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="116.25" thickBot="1">
+    <row r="10" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2511,15 +2524,17 @@
         <v>23</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H10" s="12">
+        <v>45421</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:11" ht="114.75" thickBot="1">
+    <row r="11" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -2536,15 +2551,17 @@
         <v>13</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H11" s="12">
+        <v>45421</v>
+      </c>
       <c r="I11" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:11" ht="126" thickBot="1">
+    <row r="12" spans="2:11" ht="137.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2561,15 +2578,17 @@
         <v>24</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H12" s="12">
+        <v>45421</v>
+      </c>
       <c r="I12" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="2:11" ht="114.75" thickBot="1">
+    <row r="13" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -2586,15 +2605,17 @@
         <v>25</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H13" s="12">
+        <v>45421</v>
+      </c>
       <c r="I13" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:11" ht="103.5" thickBot="1">
+    <row r="14" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -2611,15 +2632,17 @@
         <v>26</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H14" s="12">
+        <v>45421</v>
+      </c>
       <c r="I14" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:11" ht="103.5" thickBot="1">
+    <row r="15" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>12</v>
       </c>
@@ -2636,17 +2659,19 @@
         <v>27</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="H15" s="12">
+        <v>45421</v>
+      </c>
       <c r="I15" s="11" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="103.5" thickBot="1">
+    <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -2671,7 +2696,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="103.5" thickBot="1">
+    <row r="17" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>14</v>
       </c>
@@ -2696,7 +2721,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="103.5" thickBot="1">
+    <row r="18" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -2723,7 +2748,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="2:12" ht="103.5" thickBot="1">
+    <row r="19" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>16</v>
       </c>
@@ -2748,7 +2773,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:12" ht="81" thickBot="1">
+    <row r="20" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -2773,7 +2798,7 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="81" thickBot="1">
+    <row r="21" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>18</v>
       </c>
@@ -2794,7 +2819,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="81" thickBot="1">
+    <row r="22" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -2819,7 +2844,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="81" thickBot="1">
+    <row r="23" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>20</v>
       </c>
@@ -2844,7 +2869,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="162.75" thickBot="1">
+    <row r="24" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>21</v>
       </c>
@@ -2869,7 +2894,7 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:12" ht="162.75" thickBot="1">
+    <row r="25" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>22</v>
       </c>
@@ -2894,7 +2919,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:12" ht="150" thickBot="1">
+    <row r="26" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -2919,7 +2944,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:12" ht="162.75" thickBot="1">
+    <row r="27" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>24</v>
       </c>
@@ -2944,7 +2969,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:12" ht="150" thickBot="1">
+    <row r="28" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -2971,7 +2996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="162.75" thickBot="1">
+    <row r="29" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>26</v>
       </c>
@@ -2996,7 +3021,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:12" ht="162.75" thickBot="1">
+    <row r="30" spans="2:12" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>27</v>
       </c>
@@ -3021,7 +3046,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="150" thickBot="1">
+    <row r="31" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10">
         <v>28</v>
       </c>
@@ -3046,7 +3071,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="162.75" thickBot="1">
+    <row r="32" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10">
         <v>29</v>
       </c>
@@ -3071,7 +3096,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="150" thickBot="1">
+    <row r="33" spans="2:10" ht="150" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>30</v>
       </c>
@@ -3098,7 +3123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="106.5" thickBot="1">
+    <row r="34" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10">
         <v>31</v>
       </c>
@@ -3123,7 +3148,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" ht="95.25" thickBot="1">
+    <row r="35" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>32</v>
       </c>
@@ -3148,7 +3173,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="106.5" thickBot="1">
+    <row r="36" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>33</v>
       </c>
@@ -3173,7 +3198,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" ht="106.5" thickBot="1">
+    <row r="37" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>34</v>
       </c>
@@ -3198,7 +3223,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" ht="95.25" thickBot="1">
+    <row r="38" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>35</v>
       </c>
@@ -3223,7 +3248,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" ht="106.5" thickBot="1">
+    <row r="39" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>36</v>
       </c>
@@ -3248,7 +3273,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="31.5" thickBot="1">
+    <row r="40" spans="2:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10">
         <v>37</v>
       </c>
@@ -3273,7 +3298,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" ht="183.75" thickBot="1">
+    <row r="41" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <v>38</v>
       </c>
@@ -3298,7 +3323,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="172.5" thickBot="1">
+    <row r="42" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <v>39</v>
       </c>
@@ -3323,7 +3348,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="185.25" thickBot="1">
+    <row r="43" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>40</v>
       </c>
@@ -3348,7 +3373,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="161.25" thickBot="1">
+    <row r="44" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10">
         <v>41</v>
       </c>
@@ -3373,7 +3398,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="161.25" thickBot="1">
+    <row r="45" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10">
         <v>42</v>
       </c>
@@ -3398,7 +3423,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="161.25" thickBot="1">
+    <row r="46" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10">
         <v>43</v>
       </c>
@@ -3423,7 +3448,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" ht="161.25" thickBot="1">
+    <row r="47" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <v>44</v>
       </c>
@@ -3448,7 +3473,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" ht="148.5" thickBot="1">
+    <row r="48" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10">
         <v>45</v>
       </c>
@@ -3473,7 +3498,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="174" thickBot="1">
+    <row r="49" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="10">
         <v>46</v>
       </c>
@@ -3500,7 +3525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="148.5" thickBot="1">
+    <row r="50" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10">
         <v>47</v>
       </c>
@@ -3525,7 +3550,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="174" thickBot="1">
+    <row r="51" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>48</v>
       </c>
@@ -3552,7 +3577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="148.5" thickBot="1">
+    <row r="52" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10">
         <v>49</v>
       </c>
@@ -3577,7 +3602,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="174" thickBot="1">
+    <row r="53" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10">
         <v>50</v>
       </c>
@@ -3604,7 +3629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="183.75" thickBot="1">
+    <row r="54" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10">
         <v>51</v>
       </c>
@@ -3629,7 +3654,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="172.5" thickBot="1">
+    <row r="55" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10">
         <v>52</v>
       </c>
@@ -3654,7 +3679,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="185.25" thickBot="1">
+    <row r="56" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10">
         <v>53</v>
       </c>
@@ -3679,7 +3704,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="161.25" thickBot="1">
+    <row r="57" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10">
         <v>54</v>
       </c>
@@ -3704,7 +3729,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="161.25" thickBot="1">
+    <row r="58" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="10">
         <v>55</v>
       </c>
@@ -3729,7 +3754,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="161.25" thickBot="1">
+    <row r="59" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>56</v>
       </c>
@@ -3754,7 +3779,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="161.25" thickBot="1">
+    <row r="60" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="10">
         <v>57</v>
       </c>
@@ -3779,7 +3804,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="148.5" thickBot="1">
+    <row r="61" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10">
         <v>58</v>
       </c>
@@ -3804,7 +3829,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="174" thickBot="1">
+    <row r="62" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="10">
         <v>59</v>
       </c>
@@ -3831,7 +3856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="148.5" thickBot="1">
+    <row r="63" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10">
         <v>60</v>
       </c>
@@ -3856,7 +3881,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" ht="174" thickBot="1">
+    <row r="64" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10">
         <v>61</v>
       </c>
@@ -3883,7 +3908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="148.5" thickBot="1">
+    <row r="65" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="10">
         <v>62</v>
       </c>
@@ -3908,7 +3933,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="174" thickBot="1">
+    <row r="66" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="10">
         <v>63</v>
       </c>
@@ -3935,7 +3960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1">
+    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3946,7 +3971,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1">
+    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3957,7 +3982,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1">
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3968,7 +3993,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1">
+    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3979,7 +4004,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1">
+    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3990,7 +4015,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1">
+    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4001,7 +4026,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1">
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4012,7 +4037,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1">
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4023,7 +4048,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1">
+    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4034,7 +4059,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1">
+    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4045,7 +4070,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1">
+    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4056,7 +4081,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1">
+    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4067,7 +4092,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1">
+    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4078,7 +4103,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1">
+    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4089,7 +4114,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1">
+    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4100,7 +4125,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" thickBot="1">
+    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -4111,7 +4136,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1">
+    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4122,7 +4147,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1">
+    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4133,7 +4158,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" thickBot="1">
+    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4144,7 +4169,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1">
+    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4155,7 +4180,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1">
+    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4166,7 +4191,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" thickBot="1">
+    <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4177,7 +4202,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1">
+    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4188,7 +4213,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1">
+    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4199,7 +4224,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1">
+    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4210,7 +4235,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1">
+    <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4221,7 +4246,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1">
+    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4232,7 +4257,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1">
+    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4243,7 +4268,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" thickBot="1">
+    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4254,7 +4279,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1">
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4265,7 +4290,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1">
+    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4276,7 +4301,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1">
+    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4287,7 +4312,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1">
+    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4298,7 +4323,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1">
+    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4309,7 +4334,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1">
+    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4320,7 +4345,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1">
+    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4331,7 +4356,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" ht="15.75" thickBot="1">
+    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4342,7 +4367,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1">
+    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4353,7 +4378,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" thickBot="1">
+    <row r="105" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4364,7 +4389,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1">
+    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4375,7 +4400,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1">
+    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4386,7 +4411,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1">
+    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4397,7 +4422,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1">
+    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4408,7 +4433,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" thickBot="1">
+    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4419,7 +4444,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1">
+    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4430,7 +4455,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1">
+    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4441,7 +4466,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" thickBot="1">
+    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4452,7 +4477,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1">
+    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4463,7 +4488,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" ht="15.75" thickBot="1">
+    <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4474,7 +4499,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1">
+    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4485,7 +4510,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" thickBot="1">
+    <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4496,7 +4521,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" thickBot="1">
+    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4507,7 +4532,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1">
+    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4518,7 +4543,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" thickBot="1">
+    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4529,7 +4554,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1">
+    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4540,7 +4565,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" thickBot="1">
+    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4551,7 +4576,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" thickBot="1">
+    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4562,7 +4587,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1">
+    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4573,7 +4598,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" ht="15.75" thickBot="1">
+    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4584,7 +4609,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" thickBot="1">
+    <row r="126" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4595,7 +4620,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" thickBot="1">
+    <row r="127" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4606,7 +4631,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" thickBot="1">
+    <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4617,7 +4642,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" ht="15.75" thickBot="1">
+    <row r="129" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4628,7 +4653,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" ht="15.75" thickBot="1">
+    <row r="130" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4639,7 +4664,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" ht="15.75" thickBot="1">
+    <row r="131" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4650,7 +4675,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" thickBot="1">
+    <row r="132" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4661,7 +4686,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" ht="15.75" thickBot="1">
+    <row r="133" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4672,7 +4697,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" ht="15.75" thickBot="1">
+    <row r="134" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4683,7 +4708,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" ht="15.75" thickBot="1">
+    <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4694,7 +4719,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" thickBot="1">
+    <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4705,7 +4730,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" ht="15.75" thickBot="1">
+    <row r="137" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4716,7 +4741,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" ht="15.75" thickBot="1">
+    <row r="138" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4727,7 +4752,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" ht="15.75" thickBot="1">
+    <row r="139" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4738,7 +4763,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" thickBot="1">
+    <row r="140" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4749,7 +4774,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" ht="15.75" thickBot="1">
+    <row r="141" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4760,7 +4785,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" ht="15.75" thickBot="1">
+    <row r="142" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4771,7 +4796,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1">
+    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4782,7 +4807,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" ht="15.75" thickBot="1">
+    <row r="144" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4793,7 +4818,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" ht="15.75" thickBot="1">
+    <row r="145" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4804,7 +4829,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1">
+    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4815,7 +4840,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" thickBot="1">
+    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4826,7 +4851,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" ht="15.75" thickBot="1">
+    <row r="148" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4837,7 +4862,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" ht="15.75" thickBot="1">
+    <row r="149" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4848,7 +4873,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" thickBot="1">
+    <row r="150" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4859,7 +4884,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10" ht="15.75" thickBot="1">
+    <row r="151" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D710F95-FEAE-4482-863C-89F6B3D94838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215FD981-2735-4E9C-841B-33A7250EB8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="94">
   <si>
     <t>BUG-ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Prueba</t>
-  </si>
-  <si>
-    <t>Abierto</t>
   </si>
   <si>
     <t>fran</t>
@@ -2293,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2347,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>8</v>
@@ -2356,16 +2353,16 @@
         <v>45421</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="12">
         <v>45421</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="13"/>
     </row>
@@ -2374,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>8</v>
@@ -2383,16 +2380,16 @@
         <v>45421</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="12">
         <v>45421</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="13"/>
     </row>
@@ -2401,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -2410,16 +2407,16 @@
         <v>45421</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="12">
         <v>45421</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" s="13"/>
     </row>
@@ -2428,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>8</v>
@@ -2437,16 +2434,16 @@
         <v>45421</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="12">
         <v>45421</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="13"/>
     </row>
@@ -2455,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>8</v>
@@ -2464,16 +2461,16 @@
         <v>45421</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="12">
         <v>45421</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" s="13"/>
     </row>
@@ -2482,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>8</v>
@@ -2491,19 +2488,19 @@
         <v>45421</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="12">
         <v>45421</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -2512,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>8</v>
@@ -2521,16 +2518,16 @@
         <v>45421</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="12">
         <v>45421</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="13"/>
     </row>
@@ -2539,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>8</v>
@@ -2548,16 +2545,16 @@
         <v>45421</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="12">
         <v>45421</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" s="13"/>
     </row>
@@ -2566,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>8</v>
@@ -2575,16 +2572,16 @@
         <v>45421</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="12">
         <v>45421</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="13"/>
     </row>
@@ -2593,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>8</v>
@@ -2602,16 +2599,16 @@
         <v>45421</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="12">
         <v>45421</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -2620,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>8</v>
@@ -2629,16 +2626,16 @@
         <v>45421</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="12">
         <v>45421</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -2647,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>8</v>
@@ -2656,19 +2653,19 @@
         <v>45421</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="12">
         <v>45421</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2676,23 +2673,25 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="12">
         <v>45421</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="H16" s="12">
+        <v>45421</v>
+      </c>
       <c r="I16" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -2701,23 +2700,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="12">
         <v>45421</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="H17" s="12">
+        <v>45421</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -2726,23 +2727,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="12">
         <v>45421</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="H18" s="12">
+        <v>45421</v>
+      </c>
       <c r="I18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="9"/>
@@ -2753,23 +2756,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="12">
         <v>45421</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="H19" s="12">
+        <v>45421</v>
+      </c>
       <c r="I19" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -2778,23 +2783,25 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="12">
         <v>45421</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -2803,19 +2810,23 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="12">
         <v>45421</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="12">
+        <v>45424</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
     </row>
@@ -2824,23 +2835,25 @@
         <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="12">
         <v>45421</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J22" s="5"/>
     </row>
@@ -2849,23 +2862,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="12">
         <v>45421</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -2874,23 +2889,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="12">
         <v>45421</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -2899,23 +2916,25 @@
         <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="12">
         <v>45421</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -2924,23 +2943,25 @@
         <v>23</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="12">
         <v>45421</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J26" s="5"/>
     </row>
@@ -2949,23 +2970,25 @@
         <v>24</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="12">
         <v>45421</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J27" s="5"/>
     </row>
@@ -2974,26 +2997,28 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="12">
         <v>45421</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3001,23 +3026,25 @@
         <v>26</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="12">
         <v>45421</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="5"/>
     </row>
@@ -3026,23 +3053,25 @@
         <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="12">
         <v>45421</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -3051,23 +3080,25 @@
         <v>28</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="12">
         <v>45421</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -3076,23 +3107,25 @@
         <v>29</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="12">
         <v>45421</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -3101,26 +3134,28 @@
         <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="12">
         <v>45421</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="12">
+        <v>45424</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="J33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3128,23 +3163,23 @@
         <v>31</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="12">
         <v>45422</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J34" s="5"/>
     </row>
@@ -3153,23 +3188,23 @@
         <v>32</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="12">
         <v>45422</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J35" s="5"/>
     </row>
@@ -3178,23 +3213,23 @@
         <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="12">
         <v>45422</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" s="5"/>
     </row>
@@ -3203,23 +3238,23 @@
         <v>34</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="12">
         <v>45422</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" s="5"/>
     </row>
@@ -3228,23 +3263,23 @@
         <v>35</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="12">
         <v>45422</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" s="5"/>
     </row>
@@ -3253,23 +3288,23 @@
         <v>36</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="12">
         <v>45422</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" s="5"/>
     </row>
@@ -3278,23 +3313,23 @@
         <v>37</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="12">
         <v>45422</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J40" s="5"/>
     </row>
@@ -3303,23 +3338,23 @@
         <v>38</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="12">
         <v>45422</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" s="5"/>
     </row>
@@ -3328,23 +3363,23 @@
         <v>39</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="12">
         <v>45422</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" s="5"/>
     </row>
@@ -3353,23 +3388,23 @@
         <v>40</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="12">
         <v>45422</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" s="5"/>
     </row>
@@ -3378,23 +3413,23 @@
         <v>41</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="12">
         <v>45422</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J44" s="5"/>
     </row>
@@ -3403,23 +3438,23 @@
         <v>42</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="12">
         <v>45422</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J45" s="5"/>
     </row>
@@ -3428,23 +3463,23 @@
         <v>43</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="12">
         <v>45422</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" s="5"/>
     </row>
@@ -3453,23 +3488,23 @@
         <v>44</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="12">
         <v>45422</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J47" s="5"/>
     </row>
@@ -3478,23 +3513,23 @@
         <v>45</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="12">
         <v>45422</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" s="5"/>
     </row>
@@ -3503,26 +3538,26 @@
         <v>46</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" s="12">
         <v>45422</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3530,23 +3565,23 @@
         <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="12">
         <v>45422</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" s="5"/>
     </row>
@@ -3555,26 +3590,26 @@
         <v>48</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="12">
         <v>45422</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3582,23 +3617,23 @@
         <v>49</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="12">
         <v>45422</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" s="5"/>
     </row>
@@ -3607,26 +3642,26 @@
         <v>50</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="12">
         <v>45422</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
@@ -3634,23 +3669,23 @@
         <v>51</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="12">
         <v>45422</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J54" s="5"/>
     </row>
@@ -3659,23 +3694,23 @@
         <v>52</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="12">
         <v>45422</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" s="5"/>
     </row>
@@ -3684,23 +3719,23 @@
         <v>53</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="12">
         <v>45422</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J56" s="5"/>
     </row>
@@ -3709,23 +3744,23 @@
         <v>54</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="12">
         <v>45422</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J57" s="5"/>
     </row>
@@ -3734,23 +3769,23 @@
         <v>55</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" s="12">
         <v>45422</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J58" s="5"/>
     </row>
@@ -3759,23 +3794,23 @@
         <v>56</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="12">
         <v>45422</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J59" s="5"/>
     </row>
@@ -3784,23 +3819,23 @@
         <v>57</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="12">
         <v>45422</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" s="5"/>
     </row>
@@ -3809,23 +3844,23 @@
         <v>58</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="12">
         <v>45422</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J61" s="5"/>
     </row>
@@ -3834,26 +3869,26 @@
         <v>59</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="12">
         <v>45422</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3861,23 +3896,23 @@
         <v>60</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" s="12">
         <v>45422</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="5"/>
     </row>
@@ -3886,26 +3921,26 @@
         <v>61</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64" s="12">
         <v>45422</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3913,23 +3948,23 @@
         <v>62</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" s="12">
         <v>45422</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J65" s="5"/>
     </row>
@@ -3938,26 +3973,26 @@
         <v>63</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" s="12">
         <v>45422</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Documentos/Planilla de bugs (6+1 Software).xlsx
+++ b/Documentos/Planilla de bugs (6+1 Software).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215FD981-2735-4E9C-841B-33A7250EB8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D0042-8716-4B35-BD50-4FB29C958827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1928,50 +1928,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1992,7 +1991,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2290,213 +2289,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="19.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="31" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
+    <row r="4" spans="2:11" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>45421</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>45421</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>45421</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>45421</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>45421</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>45421</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>45421</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>45421</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" ht="95.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>45421</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>45421</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" ht="95.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>45421</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>45421</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -2504,1498 +2501,1498 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+    <row r="10" spans="2:11" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>45421</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>45421</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>45421</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>45421</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="2:11" ht="137.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>45421</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>45421</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:11" ht="126" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>45421</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>45421</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" ht="95.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>45421</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>45421</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="2:11" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" ht="95.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>45421</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>45421</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
+    <row r="16" spans="2:11" ht="85.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11">
         <v>45421</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>45421</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
+    <row r="17" spans="2:12" ht="85.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11">
         <v>45421</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>45421</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
+    <row r="18" spans="2:12" ht="85.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11">
         <v>45421</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>45421</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="2:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="85.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11">
         <v>45421</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>45421</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
+    <row r="20" spans="2:12" ht="75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11">
         <v>45421</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>45424</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
+    <row r="21" spans="2:12" ht="75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11">
         <v>45421</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>45424</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
+    <row r="22" spans="2:12" ht="75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="11">
         <v>45421</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>45424</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
+    <row r="23" spans="2:12" ht="75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="11">
         <v>45421</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>45424</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10">
-        <v>21</v>
-      </c>
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="2:12" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11">
         <v>45421</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>45424</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
+    <row r="25" spans="2:12" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11">
         <v>45421</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>45424</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
+    <row r="26" spans="2:12" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11">
         <v>45421</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>45424</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
+    <row r="27" spans="2:12" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11">
         <v>45421</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>45424</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
+    <row r="28" spans="2:12" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11">
         <v>45421</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>45424</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
+    <row r="29" spans="2:12" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11">
         <v>45421</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>45424</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:12" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
+    <row r="30" spans="2:12" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11">
         <v>45421</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>45424</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:12" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10">
+    <row r="31" spans="2:12" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="11">
         <v>45421</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>45424</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="162.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10">
+    <row r="32" spans="2:12" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
         <v>29</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="11">
         <v>45421</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>45424</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="150" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10">
+    <row r="33" spans="2:10" ht="139.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="11">
         <v>45421</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>45424</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
+    <row r="34" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
         <v>31</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="D34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="11">
         <v>45422</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10">
+    <row r="35" spans="2:10" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="11">
         <v>45422</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10">
+    <row r="36" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="D36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="11">
         <v>45422</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" ht="93.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10">
+    <row r="37" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
         <v>34</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="12">
+      <c r="D37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="11">
         <v>45422</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
+    <row r="38" spans="2:10" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
         <v>35</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="D38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="11">
         <v>45422</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" ht="106.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10">
+    <row r="39" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="12">
+      <c r="D39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="11">
         <v>45422</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="H39" s="10"/>
+      <c r="I39" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
+    <row r="40" spans="2:10" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="12">
+      <c r="D40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="11">
         <v>45422</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10">
+    <row r="41" spans="2:10" ht="169.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
         <v>38</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="12">
+      <c r="D41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="11">
         <v>45422</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10">
+    <row r="42" spans="2:10" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
         <v>39</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="D42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="11">
         <v>45422</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10">
+    <row r="43" spans="2:10" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
         <v>40</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="12">
+      <c r="D43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="11">
         <v>45422</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10">
+    <row r="44" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
         <v>41</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="12">
+      <c r="D44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="11">
         <v>45422</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10">
+    <row r="45" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
         <v>42</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="12">
+      <c r="D45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="11">
         <v>45422</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10">
+    <row r="46" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
         <v>43</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="12">
+      <c r="D46" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="11">
         <v>45422</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10">
+    <row r="47" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
         <v>44</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="12">
+      <c r="D47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="11">
         <v>45422</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10">
+    <row r="48" spans="2:10" ht="136.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="D48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="11">
         <v>45422</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
+    <row r="49" spans="2:10" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
         <v>46</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="12">
+      <c r="D49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="11">
         <v>45422</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11" t="s">
+      <c r="H49" s="10"/>
+      <c r="I49" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10">
+    <row r="50" spans="2:10" ht="136.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
         <v>47</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="12">
+      <c r="D50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="11">
         <v>45422</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11" t="s">
+      <c r="H50" s="10"/>
+      <c r="I50" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="10">
+    <row r="51" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
         <v>48</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="12">
+      <c r="D51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="11">
         <v>45422</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11" t="s">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10">
+    <row r="52" spans="2:10" ht="136.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
         <v>49</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="12">
+      <c r="D52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="11">
         <v>45422</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
+    <row r="53" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
         <v>50</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="12">
+      <c r="D53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="11">
         <v>45422</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11" t="s">
+      <c r="H53" s="10"/>
+      <c r="I53" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="171" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10">
+    <row r="54" spans="2:10" ht="169.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
         <v>51</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="12">
+      <c r="D54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="11">
         <v>45422</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11" t="s">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10">
+    <row r="55" spans="2:10" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
         <v>52</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="12">
+      <c r="D55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="11">
         <v>45422</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11" t="s">
+      <c r="H55" s="10"/>
+      <c r="I55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10">
+    <row r="56" spans="2:10" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
         <v>53</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="12">
+      <c r="D56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="11">
         <v>45422</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11" t="s">
+      <c r="H56" s="10"/>
+      <c r="I56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
+    <row r="57" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
         <v>54</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="12">
+      <c r="D57" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="11">
         <v>45422</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11" t="s">
+      <c r="H57" s="10"/>
+      <c r="I57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
+    <row r="58" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
         <v>55</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="D58" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="11">
         <v>45422</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11" t="s">
+      <c r="H58" s="10"/>
+      <c r="I58" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10">
+    <row r="59" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
         <v>56</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="12">
+      <c r="D59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="11">
         <v>45422</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11" t="s">
+      <c r="H59" s="10"/>
+      <c r="I59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10">
+    <row r="60" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
         <v>57</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="12">
+      <c r="D60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="11">
         <v>45422</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11" t="s">
+      <c r="H60" s="10"/>
+      <c r="I60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10">
+    <row r="61" spans="2:10" ht="136.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
         <v>58</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="12">
+      <c r="D61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="11">
         <v>45422</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11" t="s">
+      <c r="H61" s="10"/>
+      <c r="I61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
+    <row r="62" spans="2:10" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
         <v>59</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="12">
+      <c r="D62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="11">
         <v>45422</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11" t="s">
+      <c r="H62" s="10"/>
+      <c r="I62" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10">
+    <row r="63" spans="2:10" ht="136.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
         <v>60</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="12">
+      <c r="D63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="11">
         <v>45422</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11" t="s">
+      <c r="H63" s="10"/>
+      <c r="I63" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10">
+    <row r="64" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
         <v>61</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="12">
+      <c r="D64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="11">
         <v>45422</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11" t="s">
+      <c r="H64" s="10"/>
+      <c r="I64" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10">
+    <row r="65" spans="2:10" ht="136.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
         <v>62</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="12">
+      <c r="D65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="11">
         <v>45422</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11" t="s">
+      <c r="H65" s="10"/>
+      <c r="I65" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" ht="161.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10">
+    <row r="66" spans="2:10" ht="149.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
         <v>63</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="12">
+      <c r="D66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="11">
         <v>45422</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11" t="s">
+      <c r="H66" s="10"/>
+      <c r="I66" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4006,7 +4003,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4017,7 +4014,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4028,7 +4025,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4039,7 +4036,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4050,7 +4047,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4061,7 +4058,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4072,7 +4069,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4083,7 +4080,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4094,7 +4091,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4105,7 +4102,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4116,7 +4113,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4127,7 +4124,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4138,7 +4135,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4149,7 +4146,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4160,7 +4157,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -4171,7 +4168,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4182,7 +4179,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4193,7 +4190,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4204,7 +4201,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4215,7 +4212,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4226,7 +4223,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4237,7 +4234,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4248,7 +4245,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4259,7 +4256,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4270,7 +4267,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4281,7 +4278,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4292,7 +4289,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4303,7 +4300,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4314,7 +4311,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4325,7 +4322,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4336,7 +4333,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4347,7 +4344,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4358,7 +4355,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4369,7 +4366,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4380,7 +4377,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4391,7 +4388,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4402,7 +4399,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4413,7 +4410,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4424,7 +4421,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4435,7 +4432,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4446,7 +4443,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4457,7 +4454,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4468,7 +4465,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4479,7 +4476,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4490,7 +4487,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4501,7 +4498,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4512,7 +4509,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4523,7 +4520,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4534,7 +4531,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4545,7 +4542,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4556,7 +4553,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4567,7 +4564,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4578,7 +4575,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4589,7 +4586,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4600,7 +4597,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4611,7 +4608,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4622,7 +4619,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4633,7 +4630,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4644,7 +4641,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4655,7 +4652,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4666,7 +4663,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4677,7 +4674,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4688,7 +4685,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4699,7 +4696,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4710,7 +4707,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4721,7 +4718,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4732,7 +4729,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4743,7 +4740,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4754,7 +4751,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4765,7 +4762,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4776,7 +4773,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4787,7 +4784,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4798,7 +4795,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4809,7 +4806,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4820,7 +4817,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4831,7 +4828,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4842,7 +4839,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4853,7 +4850,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4864,7 +4861,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4875,7 +4872,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4886,7 +4883,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4897,7 +4894,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4908,7 +4905,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4919,7 +4916,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
